--- a/biology/Botanique/Direction_départementale_de_l'Agriculture_et_de_la_Forêt/Direction_départementale_de_l'Agriculture_et_de_la_Forêt.xlsx
+++ b/biology/Botanique/Direction_départementale_de_l'Agriculture_et_de_la_Forêt/Direction_départementale_de_l'Agriculture_et_de_la_Forêt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Direction_d%C3%A9partementale_de_l%27Agriculture_et_de_la_For%C3%AAt</t>
+          <t>Direction_départementale_de_l'Agriculture_et_de_la_Forêt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La direction départementale de l’Agriculture et de la Forêt (DDAF) était un service déconcentré de l'État français, placé sous l'autorité du préfet de département. Il exerçait, au service des territoires ruraux, des missions relevant d'abord du ministère de l'Agriculture et de la Pêche mais aussi du ministère de l'Écologie, de l'Énergie, du Développement durable et de l'Aménagement du territoire.
 Service public de proximité, la DDAF adoptait et mettait en œuvre, au niveau départemental, les politiques publiques relatives aux productions agricoles et forestières, à la protection et à la gestion de l'eau et de l'environnement, à l'aménagement et au développement de l'espace rural. Elle effectuait également des missions d'ingénierie publique à la demande des communes et de leur groupement.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Direction_d%C3%A9partementale_de_l%27Agriculture_et_de_la_For%C3%AAt</t>
+          <t>Direction_départementale_de_l'Agriculture_et_de_la_Forêt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les principales missions des DDAF étaient les suivantes :
 l'économie agricole et agroalimentaire départementale avec notamment le soutien aux exploitations agricoles et aux industries agroalimentaires ;
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Direction_d%C3%A9partementale_de_l%27Agriculture_et_de_la_For%C3%AAt</t>
+          <t>Direction_départementale_de_l'Agriculture_et_de_la_Forêt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Fusion avec les directions départementales de l'équipement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cadre de la révision générale des politiques publiques, la fusion progressive des directions départementales de l'Agriculture et de la Forêt avec les directions départementales de l'Équipement (DDE) a été décidée. Ces deux services forment alors dans un premier temps la direction départementale de l'Équipement et de l'Agriculture (DDEA).
 L'opération a d'abord été réalisée dans huit départements test au 1er janvier 2007 (Ariège, Aube, Cher, Loir-et-Cher, Lot, Yvelines, Territoire de Belfort et Val-d'Oise).
